--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_磐石组.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_磐石组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>蘑菇宝贷款合同列表加拓展员列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表查询优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础服务组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +863,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1192,17 +1204,37 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13">
+        <v>42535</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="13">
+        <v>42535</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="J7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
